--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,75 +40,69 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>hell</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fight</t>
+    <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -118,6 +112,9 @@
     <t>co</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -136,10 +133,28 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>great</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>support</t>
@@ -148,106 +163,127 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>strong</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>nice</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>team</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increased</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
   <si>
     <t>stay</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>amp</t>
   </si>
   <si>
     <t>shopping</t>
@@ -614,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7894736842105263</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -733,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7397260273972602</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C4">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -783,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6470588235294118</v>
+        <v>0.7602739726027398</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.8485639686684073</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>325</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>325</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,37 +919,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.64</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6111111111111112</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.839622641509434</v>
+        <v>0.83125</v>
       </c>
       <c r="L8">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="M8">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,37 +1019,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6086956521739131</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>14</v>
       </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>9</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5666666666666667</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5526315789473685</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8098591549295775</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L11">
-        <v>115</v>
+        <v>309</v>
       </c>
       <c r="M11">
-        <v>115</v>
+        <v>309</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>0.8055555555555556</v>
@@ -1183,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4864864864864865</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.79375</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4705882352941176</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.7926829268292683</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4476744186046512</v>
+        <v>0.4748062015503876</v>
       </c>
       <c r="C15">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="D15">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4338624338624338</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C16">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3898305084745763</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2933333333333333</v>
+        <v>0.3221476510067114</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,31 +1487,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.7441860465116279</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
+        <v>96</v>
+      </c>
+      <c r="M18">
+        <v>96</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>32</v>
-      </c>
-      <c r="M18">
-        <v>32</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2727272727272727</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2678571428571428</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.723404255319149</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1575,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2545454545454545</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1601,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1625,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2416107382550336</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1651,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.7</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1675,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1625</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1701,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.6857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1725,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1733,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1444444444444444</v>
+        <v>0.1152815013404826</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1751,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1775,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,13 +1819,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1388888888888889</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1801,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.6705882352941176</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L25">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="M25">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1825,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,37 +1869,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0938337801608579</v>
+        <v>0.01942376173518938</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>338</v>
+        <v>3029</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.6153846153846154</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1875,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1883,37 +1919,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.05</v>
+        <v>0.01382886776145203</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>285</v>
+        <v>1141</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.606694560669456</v>
+        <v>0.68</v>
       </c>
       <c r="L27">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1925,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1933,37 +1969,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01390236016812156</v>
+        <v>0.0132013201320132</v>
       </c>
       <c r="C28">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E28">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="F28">
-        <v>0.75</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>3050</v>
+        <v>2093</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.5864406779661017</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L28">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1975,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>122</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1983,87 +2019,63 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01177024482109228</v>
+        <v>0.009215125516364792</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E29">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="F29">
-        <v>0.5700000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2099</v>
+        <v>3118</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29">
+        <v>0.6294117647058823</v>
+      </c>
+      <c r="L29">
+        <v>214</v>
+      </c>
+      <c r="M29">
+        <v>214</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K29">
-        <v>0.5638297872340425</v>
-      </c>
-      <c r="L29">
-        <v>53</v>
-      </c>
-      <c r="M29">
-        <v>53</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.00540368722186904</v>
-      </c>
-      <c r="C30">
-        <v>17</v>
-      </c>
-      <c r="D30">
-        <v>72</v>
-      </c>
-      <c r="E30">
-        <v>0.76</v>
-      </c>
-      <c r="F30">
-        <v>0.24</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>3129</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K30">
-        <v>0.5555555555555556</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2075,47 +2087,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.5285714285714286</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.5168539325842697</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2127,21 +2139,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.4761904761904762</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2153,15 +2165,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.3939393939393939</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L34">
         <v>13</v>
@@ -2179,21 +2191,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K35">
-        <v>0.375</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2205,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K36">
-        <v>0.3561643835616438</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2231,21 +2243,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K37">
-        <v>0.3555555555555556</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2257,21 +2269,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K38">
-        <v>0.3333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2283,21 +2295,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K39">
-        <v>0.3076923076923077</v>
+        <v>0.5</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2309,21 +2321,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K40">
-        <v>0.2982456140350877</v>
+        <v>0.5</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2335,21 +2347,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K41">
-        <v>0.234375</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2361,15 +2373,15 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K42">
-        <v>0.1805555555555556</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L42">
         <v>13</v>
@@ -2387,21 +2399,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K43">
-        <v>0.0487012987012987</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2413,21 +2425,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>293</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K44">
-        <v>0.03125</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2439,59 +2451,59 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>403</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K45">
-        <v>0.02333333333333333</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L45">
         <v>21</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>879</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="K46">
-        <v>0.01727386934673367</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L46">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="N46">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>3129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2499,13 +2511,13 @@
         <v>80</v>
       </c>
       <c r="K47">
-        <v>0.0145413870246085</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2517,59 +2529,397 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>881</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="K48">
-        <v>0.008970727101038715</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N48">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.5700000000000001</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>2099</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K49">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K50">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="L50">
+        <v>16</v>
+      </c>
+      <c r="M50">
+        <v>17</v>
+      </c>
+      <c r="N50">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O50">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K51">
+        <v>0.265625</v>
+      </c>
+      <c r="L51">
+        <v>17</v>
+      </c>
+      <c r="M51">
+        <v>17</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K52">
+        <v>0.1574074074074074</v>
+      </c>
+      <c r="L52">
+        <v>17</v>
+      </c>
+      <c r="M52">
+        <v>18</v>
+      </c>
+      <c r="N52">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O52">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K53">
+        <v>0.1209677419354839</v>
+      </c>
+      <c r="L53">
+        <v>15</v>
+      </c>
+      <c r="M53">
+        <v>15</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K54">
+        <v>0.07467532467532467</v>
+      </c>
+      <c r="L54">
+        <v>23</v>
+      </c>
+      <c r="M54">
+        <v>23</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K55">
+        <v>0.04498269896193772</v>
+      </c>
+      <c r="L55">
+        <v>13</v>
+      </c>
+      <c r="M55">
+        <v>13</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K56">
+        <v>0.04011461318051576</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
+      <c r="M56">
+        <v>14</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K57">
+        <v>0.0360576923076923</v>
+      </c>
+      <c r="L57">
+        <v>15</v>
+      </c>
+      <c r="M57">
+        <v>15</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K58">
+        <v>0.02330743618201998</v>
+      </c>
+      <c r="L58">
+        <v>21</v>
+      </c>
+      <c r="M58">
+        <v>21</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59">
+        <v>0.01702395964691047</v>
+      </c>
+      <c r="L59">
+        <v>54</v>
+      </c>
+      <c r="M59">
+        <v>83</v>
+      </c>
+      <c r="N59">
+        <v>0.65</v>
+      </c>
+      <c r="O59">
+        <v>0.35</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K60">
+        <v>0.01571268237934905</v>
+      </c>
+      <c r="L60">
+        <v>14</v>
+      </c>
+      <c r="M60">
+        <v>17</v>
+      </c>
+      <c r="N60">
+        <v>0.82</v>
+      </c>
+      <c r="O60">
+        <v>0.18</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K49">
-        <v>0.004569190600522193</v>
-      </c>
-      <c r="L49">
-        <v>14</v>
-      </c>
-      <c r="M49">
-        <v>57</v>
-      </c>
-      <c r="N49">
-        <v>0.25</v>
-      </c>
-      <c r="O49">
-        <v>0.75</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>3050</v>
+      <c r="K61">
+        <v>0.01040189125295508</v>
+      </c>
+      <c r="L61">
+        <v>22</v>
+      </c>
+      <c r="M61">
+        <v>50</v>
+      </c>
+      <c r="N61">
+        <v>0.44</v>
+      </c>
+      <c r="O61">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62">
+        <v>0.00590744995077125</v>
+      </c>
+      <c r="L62">
+        <v>18</v>
+      </c>
+      <c r="M62">
+        <v>78</v>
+      </c>
+      <c r="N62">
+        <v>0.23</v>
+      </c>
+      <c r="O62">
+        <v>0.77</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>3029</v>
       </c>
     </row>
   </sheetData>
